--- a/data/trans_dic/P1413-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1413-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1495778783077934</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3106504784440123</v>
+        <v>0.3106504784440122</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.154436674697593</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1257329328893411</v>
+        <v>0.1226158803880027</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09073032366992469</v>
+        <v>0.0908199932358999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06995582935777983</v>
+        <v>0.07055684747593062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1680104320192813</v>
+        <v>0.1666318116545457</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1338987289042715</v>
+        <v>0.1350824471215765</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1754069949587281</v>
+        <v>0.1793406002996862</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1242363360877226</v>
+        <v>0.1229654099549151</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2865863997514326</v>
+        <v>0.2877104493342207</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1343418720500891</v>
+        <v>0.1354874950229926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1399764733396248</v>
+        <v>0.141813745254724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.103297956140815</v>
+        <v>0.101669942861796</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2344331593310563</v>
+        <v>0.2364350848133885</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1779614239001497</v>
+        <v>0.1749340205437623</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1372991573494562</v>
+        <v>0.1394528583487867</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1166700024092698</v>
+        <v>0.116055335518808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2252163347391056</v>
+        <v>0.2266606463779477</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1885658289392923</v>
+        <v>0.1886371484611031</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2413659834151995</v>
+        <v>0.2412083431355682</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1775400458017511</v>
+        <v>0.1791536332884581</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3384120859801724</v>
+        <v>0.3395018706029803</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1755609753604254</v>
+        <v>0.1732657542455145</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1828625907117803</v>
+        <v>0.181861296078258</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1397298222946028</v>
+        <v>0.1375171782003848</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2739899294206311</v>
+        <v>0.2773783193960423</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1131583249526226</v>
+        <v>0.1141147307242305</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08538290631106449</v>
+        <v>0.08499175819547049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0625197625108635</v>
+        <v>0.06404035379913485</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1449028432118832</v>
+        <v>0.1447900566378787</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1715689695769744</v>
+        <v>0.1728657018905034</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1523561389799884</v>
+        <v>0.1534152926223546</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1157368387319267</v>
+        <v>0.1135833151857718</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2980036301730985</v>
+        <v>0.2978222475153239</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1489042884945271</v>
+        <v>0.1501962119809484</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1251517892296044</v>
+        <v>0.1254982624621417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09353222177187535</v>
+        <v>0.09397886296217584</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2270070139602713</v>
+        <v>0.2271560819006464</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1577354615800696</v>
+        <v>0.1572446311521931</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1257122169639474</v>
+        <v>0.1252616243024644</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09872501097321885</v>
+        <v>0.09820173714484094</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1905358219987691</v>
+        <v>0.1903197182793774</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2234598541399891</v>
+        <v>0.2263367792162066</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2005528786056744</v>
+        <v>0.201067463254298</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1587590616156251</v>
+        <v>0.1588457650736478</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3498886285832646</v>
+        <v>0.3453617114546966</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1835844226053672</v>
+        <v>0.1852313844375069</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1572001991587324</v>
+        <v>0.1568844291752342</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1219721965745203</v>
+        <v>0.1215411716425449</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2624916090519516</v>
+        <v>0.2620020552426203</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1066576652347262</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3272252648447372</v>
+        <v>0.3272252648447373</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2332270750364964</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1720753383982526</v>
+        <v>0.1718627128323413</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0474326821829847</v>
+        <v>0.04776782002737804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04790029141103856</v>
+        <v>0.04811087477600753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1726998113686727</v>
+        <v>0.1747677399486756</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2308924945945853</v>
+        <v>0.2331099368630219</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1241935580208079</v>
+        <v>0.1262234713442188</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08585785082703908</v>
+        <v>0.08342920301232223</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2961312528923403</v>
+        <v>0.299143307845542</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2110315819458686</v>
+        <v>0.2117840532626839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09250736547460248</v>
+        <v>0.09073474628817368</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0713902623340166</v>
+        <v>0.07294662021419823</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2411619221777055</v>
+        <v>0.2428961806567742</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2328439746632508</v>
+        <v>0.2345037376932594</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08367554543858602</v>
+        <v>0.0860273465528292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08533397243661961</v>
+        <v>0.08476712540166818</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2384253690681372</v>
+        <v>0.2347537632154662</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2983152376112613</v>
+        <v>0.2985592701201363</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1782808314320118</v>
+        <v>0.1794996868452882</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.130417203706556</v>
+        <v>0.1287551964816104</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3572373986966481</v>
+        <v>0.3571808823382113</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2559261240730949</v>
+        <v>0.2558127294257841</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1260537475892055</v>
+        <v>0.1257651209571581</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.10163855048792</v>
+        <v>0.1008324485017658</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2876187547514134</v>
+        <v>0.2877253703210399</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.091850005332949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1853670782548162</v>
+        <v>0.1853670782548161</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1620534333634112</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1472623491031919</v>
+        <v>0.1476347414831158</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06205744867555332</v>
+        <v>0.06386778787150744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07477053066437894</v>
+        <v>0.07233123481689298</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1610161538212444</v>
+        <v>0.1613378622866424</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1382978890491924</v>
+        <v>0.1398829988762973</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1682523801074438</v>
+        <v>0.1699130131148492</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1373711713634572</v>
+        <v>0.1377078929467476</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2520106560422078</v>
+        <v>0.2509136720065474</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1504942878041295</v>
+        <v>0.1490659078629073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1227705385627936</v>
+        <v>0.124204326084702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1135098079898384</v>
+        <v>0.1115113073138853</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.215956374656897</v>
+        <v>0.2149243326836759</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.19511011086834</v>
+        <v>0.1950445174776005</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09806805476267161</v>
+        <v>0.1000024871143913</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1137490383363008</v>
+        <v>0.1132717830120444</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.212418122632443</v>
+        <v>0.210624627416464</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1864509773350168</v>
+        <v>0.186494163613333</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2187142860335257</v>
+        <v>0.2223172580653251</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1835860495917676</v>
+        <v>0.1851188233904281</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2951275008205141</v>
+        <v>0.2974313900550573</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1833177362196945</v>
+        <v>0.1830292136457555</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1545461841300976</v>
+        <v>0.155182808524316</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1446380666329901</v>
+        <v>0.142576941679421</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2505684071928784</v>
+        <v>0.2484771028121228</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1390138869810334</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3060317936661508</v>
+        <v>0.3060317936661509</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1773607483701837</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1484779204118798</v>
+        <v>0.1504657268873401</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0807917652590808</v>
+        <v>0.08057147521106037</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07234534503102853</v>
+        <v>0.07147386150837934</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1727151730914362</v>
+        <v>0.1734037009393283</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1784936176616126</v>
+        <v>0.1788327100148702</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1689659605699271</v>
+        <v>0.1701255694608248</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1280404166860951</v>
+        <v>0.1271055238490895</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2916518991047409</v>
+        <v>0.2937358455596036</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.168033460816211</v>
+        <v>0.1673790186796687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1280945850931611</v>
+        <v>0.1284465322192595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1033774125033427</v>
+        <v>0.1031841270932156</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2371804467427434</v>
+        <v>0.238183882976242</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1752205520105942</v>
+        <v>0.1762209470458292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09989017190238039</v>
+        <v>0.1002953473902994</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09184800556334456</v>
+        <v>0.09129643426613057</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.19925979089235</v>
+        <v>0.1994148116023773</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2058547955038011</v>
+        <v>0.2062084375556609</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1956526500634283</v>
+        <v>0.1949662812637053</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1521388044899166</v>
+        <v>0.1519947269217912</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3177675983608105</v>
+        <v>0.3189213233382468</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1873441785768108</v>
+        <v>0.1856962932207405</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1449653714807951</v>
+        <v>0.1455793343935314</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.118968511710014</v>
+        <v>0.1186218275903254</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2572324275934349</v>
+        <v>0.2574322023582393</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>87260</v>
+        <v>85097</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>63826</v>
+        <v>63889</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47206</v>
+        <v>47612</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>116046</v>
+        <v>115094</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>92169</v>
+        <v>92984</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>122267</v>
+        <v>125009</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>83591</v>
+        <v>82736</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>209988</v>
+        <v>210812</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>185709</v>
+        <v>187293</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>196040</v>
+        <v>198613</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>139208</v>
+        <v>137014</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>333699</v>
+        <v>336549</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>123507</v>
+        <v>121406</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>96586</v>
+        <v>98101</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>78729</v>
+        <v>78314</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>155559</v>
+        <v>156557</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>129799</v>
+        <v>129849</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>168244</v>
+        <v>168134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>119456</v>
+        <v>120542</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>247962</v>
+        <v>248760</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>242689</v>
+        <v>239516</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>256103</v>
+        <v>254700</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>188305</v>
+        <v>185324</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>390006</v>
+        <v>394829</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>108836</v>
+        <v>109756</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>86915</v>
+        <v>86517</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>63922</v>
+        <v>65477</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>151467</v>
+        <v>151349</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>166146</v>
+        <v>167402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>156770</v>
+        <v>157860</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>120703</v>
+        <v>118458</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>318714</v>
+        <v>318520</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>287414</v>
+        <v>289908</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>256176</v>
+        <v>256885</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>193176</v>
+        <v>194099</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>480074</v>
+        <v>480389</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>151710</v>
+        <v>151238</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>127968</v>
+        <v>127510</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>100940</v>
+        <v>100405</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>199167</v>
+        <v>198941</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>216397</v>
+        <v>219183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>206363</v>
+        <v>206893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>165572</v>
+        <v>165662</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>374204</v>
+        <v>369363</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>354353</v>
+        <v>357532</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>321776</v>
+        <v>321130</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>251915</v>
+        <v>251024</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>555116</v>
+        <v>554081</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>116755</v>
+        <v>116610</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35936</v>
+        <v>36190</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>36383</v>
+        <v>36543</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>138370</v>
+        <v>140027</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>157894</v>
+        <v>159410</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>96520</v>
+        <v>98098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>67399</v>
+        <v>65493</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>240333</v>
+        <v>242778</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>287499</v>
+        <v>288524</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>141980</v>
+        <v>139259</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>110267</v>
+        <v>112671</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>388944</v>
+        <v>391741</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>157987</v>
+        <v>159113</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63395</v>
+        <v>65176</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>64816</v>
+        <v>64385</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>191030</v>
+        <v>188089</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>204000</v>
+        <v>204167</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>138555</v>
+        <v>139502</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>102379</v>
+        <v>101074</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>289925</v>
+        <v>289879</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>348661</v>
+        <v>348506</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>193467</v>
+        <v>193024</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>156987</v>
+        <v>155742</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>463870</v>
+        <v>464041</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>138754</v>
+        <v>139105</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>58814</v>
+        <v>60530</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70102</v>
+        <v>67815</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>159273</v>
+        <v>159591</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>143638</v>
+        <v>145284</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>176985</v>
+        <v>178732</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>143385</v>
+        <v>143737</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>281656</v>
+        <v>280430</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>298104</v>
+        <v>295275</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>245497</v>
+        <v>248364</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>224902</v>
+        <v>220942</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>454978</v>
+        <v>452804</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>183837</v>
+        <v>183775</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>92943</v>
+        <v>94776</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>106647</v>
+        <v>106200</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>210118</v>
+        <v>208344</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>193650</v>
+        <v>193695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>230066</v>
+        <v>233856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>191623</v>
+        <v>193223</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>329845</v>
+        <v>332419</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>363122</v>
+        <v>362550</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>309037</v>
+        <v>310310</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>286578</v>
+        <v>282494</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>527899</v>
+        <v>523493</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>486494</v>
+        <v>493007</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>276856</v>
+        <v>276101</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>245565</v>
+        <v>242607</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>609062</v>
+        <v>611490</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>603165</v>
+        <v>604311</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>600691</v>
+        <v>604813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>453845</v>
+        <v>450531</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1088278</v>
+        <v>1096054</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1118387</v>
+        <v>1114031</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>894341</v>
+        <v>896798</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>717325</v>
+        <v>715984</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1721414</v>
+        <v>1728697</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>574118</v>
+        <v>577396</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>342302</v>
+        <v>343690</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>311764</v>
+        <v>309892</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>702669</v>
+        <v>703216</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>695624</v>
+        <v>696819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>695564</v>
+        <v>693124</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>539262</v>
+        <v>538752</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1185727</v>
+        <v>1190032</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1246914</v>
+        <v>1235946</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1012130</v>
+        <v>1016417</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>825510</v>
+        <v>823104</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1866948</v>
+        <v>1868398</v>
       </c>
     </row>
     <row r="24">
